--- a/Information/LG+Samsung Model Info.xlsx
+++ b/Information/LG+Samsung Model Info.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="305">
   <si>
     <t>LD</t>
   </si>
@@ -161,9 +161,6 @@
     <t>LW5400, LW4500</t>
   </si>
   <si>
-    <t>LD420, LD450, LD550</t>
-  </si>
-  <si>
     <t>LE5500, LD750</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>Models</t>
   </si>
   <si>
-    <t>LW5500, LW659S, LW570S, LV579S, LW5590, LK950S, LW980S, LW650S, LV470S, LW579S, LV570S, LV375S</t>
-  </si>
-  <si>
     <t>ThomasWillma\xxLA7408-ZB00001.TLL</t>
   </si>
   <si>
@@ -221,30 +215,15 @@
     <t>Senderliste\xxLM340S-ZA00003.TLL</t>
   </si>
   <si>
-    <t>DummyDvbsBlocks\xxLM620S-ZE00005.TLL</t>
-  </si>
-  <si>
-    <t>_VitorMartinsAugusto\xxLM620S-ZE00006.TLL</t>
-  </si>
-  <si>
     <t>posti3571\xxLM640S-ZA00003.TLL</t>
   </si>
   <si>
-    <t>!OmarGadzhiev\xxLM640T-ZA00005.TLL</t>
-  </si>
-  <si>
-    <t>!OmarGadzhiev\xxLM640T-ZA00004.TLL</t>
-  </si>
-  <si>
     <t>dirkhannover\xxLM660S-ZA00001.TLL</t>
   </si>
   <si>
     <t>sirpma\xxLM669S-ZC00006.TLL</t>
   </si>
   <si>
-    <t>!ReneHerbrich\xxLM671S-ZB00003.TLL</t>
-  </si>
-  <si>
     <t>PDAUser\xxLM760S-ZB00001.TLL</t>
   </si>
   <si>
@@ -428,18 +407,12 @@
     <t>PM970S</t>
   </si>
   <si>
-    <t>CS460S, LM611S, LS560S, LM340S</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
     <t>A-TV</t>
   </si>
   <si>
-    <t>D-TV</t>
-  </si>
-  <si>
     <t>DVB-S</t>
   </si>
   <si>
@@ -491,15 +464,6 @@
     <t>FW size</t>
   </si>
   <si>
-    <t>D:\Sources\ChanSort\TestFiles\_Pred\2013-01-04.tll</t>
-  </si>
-  <si>
-    <t>_Pred\2013-01-04.tll</t>
-  </si>
-  <si>
-    <t>FW4.40.23\xxLM620S-ZE00009.TLL</t>
-  </si>
-  <si>
     <t>FW4.40.19\xxLM620S-ZE99999.TLL</t>
   </si>
   <si>
@@ -512,9 +476,6 @@
     <t>ThomasOhmes\xxLN5406-ZA99999.TLL</t>
   </si>
   <si>
-    <t>LM640T, LM671S, LM760S, LM640S, LM620S, PM970S, LM660S, PM670S, LMAL, OBAL, LM669S, LS570S, D:\Sources\ChanSort\TestFiles\_Pred\2013-01-04.tll</t>
-  </si>
-  <si>
     <t>224 / 76</t>
   </si>
   <si>
@@ -617,24 +578,12 @@
     <t>LE40C650</t>
   </si>
   <si>
-    <t>channel_list_LE40C650_1001\channel_list_LE40C650_1001-modOnPc4.scm</t>
-  </si>
-  <si>
-    <t>mit_flags</t>
-  </si>
-  <si>
-    <t>channel_list_D-Series_Astra_1101\mit_flags.scm</t>
-  </si>
-  <si>
     <t>modified</t>
   </si>
   <si>
     <t>itso_C\modified.scm</t>
   </si>
   <si>
-    <t>MirrorBoy_D\modified.scm</t>
-  </si>
-  <si>
     <t>oma-channel-list</t>
   </si>
   <si>
@@ -647,12 +596,6 @@
     <t>SurFan_C\channel_list_PS50C6970_1001.scm</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>tmyraptor_D\test.scm</t>
-  </si>
-  <si>
     <t>UE40C6700</t>
   </si>
   <si>
@@ -783,6 +726,210 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>_Manu_C\channel_list_LE40C650_1001-modOnTv2.scm</t>
+  </si>
+  <si>
+    <t>_Manu_C\channel_list_LE40C650_1001.scm</t>
+  </si>
+  <si>
+    <t>UE40C7700</t>
+  </si>
+  <si>
+    <t>Übertragung\channel_list_UE40C7700_1001.scm</t>
+  </si>
+  <si>
+    <t>UE55ES7000</t>
+  </si>
+  <si>
+    <t>KlausKröndert_E\channel_list_UE55ES7000_1201.scm</t>
+  </si>
+  <si>
+    <t>UE39F5300</t>
+  </si>
+  <si>
+    <t>ThomasKotthoff_F\channel_list_UE39F5300_1201.scm</t>
+  </si>
+  <si>
+    <t>UE39F5500</t>
+  </si>
+  <si>
+    <t>MartinWittkowski\channel_list_UE39F5500_1201.scm</t>
+  </si>
+  <si>
+    <t>DbVer</t>
+  </si>
+  <si>
+    <t>DVB-T</t>
+  </si>
+  <si>
+    <t>DVB-C</t>
+  </si>
+  <si>
+    <t>LA6608</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Walchsi_fox662\xxLA6608-ZA00002.TLL</t>
+  </si>
+  <si>
+    <t>LA6918</t>
+  </si>
+  <si>
+    <t>ReneHaugeneder\xxLA6918-ZA00002.TLL</t>
+  </si>
+  <si>
+    <t>LA6928</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>OlavHerbst\xxLA6928-ZC00001.TLL</t>
+  </si>
+  <si>
+    <t>martiko\xxLA7408-ZB00007.TLL</t>
+  </si>
+  <si>
+    <t>LE3300</t>
+  </si>
+  <si>
+    <t>AdiAdi\xxLE3300-ZA00001.TLL</t>
+  </si>
+  <si>
+    <t>NeuerScan\xxLM340S-ZA00001.TLL</t>
+  </si>
+  <si>
+    <t>2013-05-19\xxLM620S-ZE99999.TLL</t>
+  </si>
+  <si>
+    <t>___</t>
+  </si>
+  <si>
+    <t>Horst\xxLM620S-ZE90002.TLL</t>
+  </si>
+  <si>
+    <t>WernerSachs\xxLM620S-ZE00001.TLL</t>
+  </si>
+  <si>
+    <t>set2\xxLM620S-ZE00001.TLL</t>
+  </si>
+  <si>
+    <t>moster\xxLM620S-ZE00001.TLL</t>
+  </si>
+  <si>
+    <t>\0\0\0</t>
+  </si>
+  <si>
+    <t>DummyDvbsBlocks\xxLM620S-ZE00003.TLL</t>
+  </si>
+  <si>
+    <t>East-Europe\xxLM620S-ZE99999 - nach Suchlauf mit Hotel EIN.TLL</t>
+  </si>
+  <si>
+    <t>VitorMartinsAugusto\xxLM620S-ZE00006.TLL</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>VitorMartinsAugusto\xxLM620S-ZE00001.TLL</t>
+  </si>
+  <si>
+    <t>bak2013-04-04\xxLM620S-ZE99998.TLL</t>
+  </si>
+  <si>
+    <t>Henryk42\xxLM620S-ZE00001.TLL</t>
+  </si>
+  <si>
+    <t>OmarGadzhiev\xxLM640T-ZA00005.TLL</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>OmarGadzhiev\xxLM640T-ZA00004.TLL</t>
+  </si>
+  <si>
+    <t>HellG\xxLM660S-ZA00001.TLL</t>
+  </si>
+  <si>
+    <t>ReneHerbrich\xxLM671S-ZB00003.TLL</t>
+  </si>
+  <si>
+    <t>LS575S</t>
+  </si>
+  <si>
+    <t>UweRinkens\xxLS575S-ZD99999-ortiert.TLL</t>
+  </si>
+  <si>
+    <t>YHD\xxLV375S-ZC00005.TLL</t>
+  </si>
+  <si>
+    <t>Wagi4\xxLV375S-ZC00001.TLL</t>
+  </si>
+  <si>
+    <t>set3\xxLV375S-ZC00002.TLL</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>KA-Walter\xxLW5500-ZE00001.TLL</t>
+  </si>
+  <si>
+    <t>haytapot\xxLW570S-ZD00001.TLL</t>
+  </si>
+  <si>
+    <t>Exilopa\xxLW570S-ZD00001.TLL</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>decklen\xxLW570S-ZD00005.TLL</t>
+  </si>
+  <si>
+    <t>Spi376\xxLW570S-AD00006.TLL</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>ibis27\xxLW659S-ZC00001.TLL</t>
+  </si>
+  <si>
+    <t>weiddan\xxLW659S-ZC00001 - Kopie.TLL</t>
+  </si>
+  <si>
+    <t>FvN\xxPM670S-ZA00001.TLL</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Cntry</t>
+  </si>
+  <si>
+    <t>LCN</t>
+  </si>
+  <si>
+    <t>LM340S, CS460S, LM611S, LS560S</t>
+  </si>
+  <si>
+    <t>LE3300, LD420, LD450, LD550</t>
+  </si>
+  <si>
+    <t>LW5500, LW659S, LW570S, LV579S, LW5590, LK950S, LW980S, LW650S, LV470S, LW579S, LV375S, LV570S</t>
+  </si>
+  <si>
+    <t>LM620S, LM760S, LM640S, PM970S, LM660S, PM670S, LMAL, OBAL, LM640T, LM671S, LM669S, LS575S, LS570S</t>
+  </si>
+  <si>
+    <t>LA7408, LA6928, LA6918, LA6608</t>
   </si>
 </sst>
 </file>
@@ -1158,11 +1305,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1171,20 +1318,22 @@
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="9" width="6.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" customWidth="1"/>
+    <col min="19" max="19" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1">
+    <row r="1" spans="1:19" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>36</v>
@@ -1193,37 +1342,46 @@
         <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>172</v>
+        <v>132</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="R1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1237,39 +1395,45 @@
         <v>31</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>345</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="1">
+      <c r="O2" s="1">
         <v>68</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
-        <v>143</v>
-      </c>
-      <c r="O2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="R2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1284,77 +1448,92 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>1379</v>
       </c>
-      <c r="G3">
+      <c r="H3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1">
+      <c r="N3" s="1">
         <v>164</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
+        <v>135</v>
+      </c>
+      <c r="S3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4">
+        <v>256</v>
+      </c>
+      <c r="C4">
+        <v>92</v>
+      </c>
+      <c r="D4">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>276</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>252</v>
+      </c>
+      <c r="M4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4">
-        <v>192</v>
-      </c>
-      <c r="C4">
-        <v>72</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>41</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J4" t="s">
-        <v>154</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="N4" s="1">
         <v>256</v>
       </c>
-      <c r="L4" s="1">
+      <c r="O4" s="1">
         <v>92</v>
       </c>
-      <c r="M4" t="s">
-        <v>168</v>
-      </c>
-      <c r="N4" t="s">
-        <v>146</v>
-      </c>
-      <c r="O4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="s">
+        <v>155</v>
+      </c>
+      <c r="R4" t="s">
+        <v>137</v>
+      </c>
+      <c r="S4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1369,33 +1548,42 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1342</v>
+        <v>0</v>
       </c>
       <c r="G5">
+        <v>1292</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J5">
         <v>0.5</v>
       </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="K5" t="s">
+        <v>254</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>176</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N5" t="s">
-        <v>148</v>
-      </c>
-      <c r="O5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="R5" t="s">
+        <v>139</v>
+      </c>
+      <c r="S5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="B6">
         <v>256</v>
@@ -1404,165 +1592,201 @@
         <v>92</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E6">
+        <v>46</v>
+      </c>
+      <c r="F6">
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>257</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>176</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" t="s">
+        <v>141</v>
+      </c>
+      <c r="S6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1342</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>256</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>164</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>92</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>258</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="1">
+        <v>176</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" t="s">
+        <v>153</v>
+      </c>
+      <c r="S8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9">
+        <v>256</v>
+      </c>
+      <c r="C9">
+        <v>92</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>278</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J9">
         <v>0.5</v>
       </c>
-      <c r="H6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>176</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" t="s">
-        <v>150</v>
-      </c>
-      <c r="O6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7">
-        <v>176</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="1">
+        <v>184</v>
+      </c>
+      <c r="O9" s="1">
         <v>68</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>164</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" t="s">
-        <v>152</v>
-      </c>
-      <c r="O7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8">
-        <v>176</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="1">
-        <v>176</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" t="s">
-        <v>166</v>
-      </c>
-      <c r="O8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9">
-        <v>176</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>80</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="1">
-        <v>184</v>
-      </c>
-      <c r="L9" s="1">
-        <v>68</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>41</v>
       </c>
-      <c r="N9" t="s">
-        <v>155</v>
-      </c>
-      <c r="O9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="R9" t="s">
+        <v>146</v>
+      </c>
+      <c r="S9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>176</v>
@@ -1571,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E10">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1582,25 +1806,31 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="1">
+      <c r="N10" s="1">
         <v>188</v>
       </c>
-      <c r="L10" s="1">
+      <c r="O10" s="1">
         <v>68</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>176</v>
@@ -1609,218 +1839,248 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" s="1">
+        <v>224</v>
+      </c>
+      <c r="O11" s="1">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s">
+        <v>155</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>176</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>192</v>
+      </c>
+      <c r="O12" s="1">
+        <v>72</v>
+      </c>
+      <c r="P12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12">
+        <v>6936</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>176</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>248</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="1">
+        <v>192</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-72</v>
+      </c>
+      <c r="R13">
+        <v>6944</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14">
+        <v>176</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>211</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>260</v>
+      </c>
+      <c r="L14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="1">
+        <v>188</v>
+      </c>
+      <c r="O14" s="1">
+        <v>68</v>
+      </c>
+      <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14">
+        <v>11008</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>176</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>36</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" t="s">
-        <v>167</v>
-      </c>
-      <c r="K11" s="1">
-        <v>224</v>
-      </c>
-      <c r="L11" s="1">
-        <v>76</v>
-      </c>
-      <c r="M11" t="s">
-        <v>168</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>164</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>49</v>
-      </c>
-      <c r="E12">
-        <v>141</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" s="1">
         <v>192</v>
       </c>
-      <c r="L12" s="1">
+      <c r="O15" s="1">
         <v>72</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P15" t="s">
         <v>42</v>
       </c>
-      <c r="N12">
-        <v>6936</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13">
-        <v>164</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>113</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="1">
-        <v>192</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-72</v>
-      </c>
-      <c r="N13">
-        <v>6944</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14">
-        <v>164</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>37</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" t="s">
-        <v>173</v>
-      </c>
-      <c r="J14" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="1">
-        <v>188</v>
-      </c>
-      <c r="L14" s="1">
-        <v>68</v>
-      </c>
-      <c r="M14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14">
-        <v>11008</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15">
-        <v>164</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>34</v>
-      </c>
-      <c r="E15">
-        <v>253</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" t="s">
-        <v>117</v>
-      </c>
-      <c r="K15" s="1">
-        <v>192</v>
-      </c>
-      <c r="L15" s="1">
-        <v>72</v>
-      </c>
-      <c r="M15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15">
+      <c r="R15">
         <v>15936</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B16">
         <v>164</v>
@@ -1829,42 +2089,48 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="1">
+      <c r="N16" s="1">
         <v>184</v>
       </c>
-      <c r="L16" s="1">
+      <c r="O16" s="1">
         <v>68</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" t="s">
         <v>41</v>
       </c>
-      <c r="N16">
+      <c r="R16">
         <v>15960</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>164</v>
@@ -1873,42 +2139,48 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="1">
+      <c r="N17" s="1">
         <v>184</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M17" t="s">
+      <c r="P17" t="s">
         <v>9</v>
       </c>
-      <c r="N17">
+      <c r="R17">
         <v>16024</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="S17" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>164</v>
@@ -1917,45 +2189,51 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" t="s">
-        <v>124</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="1">
         <v>184</v>
       </c>
-      <c r="L18" s="1">
+      <c r="O18" s="1">
         <v>-68</v>
       </c>
-      <c r="M18" t="s">
+      <c r="P18" t="s">
         <v>9</v>
       </c>
-      <c r="N18">
+      <c r="R18">
         <v>17136</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="S18" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B19">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1964,191 +2242,221 @@
         <v>34</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>253</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N19" s="1">
+        <v>184</v>
+      </c>
+      <c r="O19" s="1">
+        <v>68</v>
+      </c>
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19">
+        <v>23072</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20">
+        <v>164</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="1">
+        <v>192</v>
+      </c>
+      <c r="O20" s="1">
+        <v>72</v>
+      </c>
+      <c r="P20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20">
+        <v>23088</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21">
+        <v>164</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" s="1">
+        <v>180</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21">
+        <v>23096</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22">
+        <v>164</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>147</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>62</v>
+      </c>
+      <c r="R22">
+        <v>23144</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>176</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>310</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
         <v>13</v>
       </c>
-      <c r="J19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" s="1">
-        <v>184</v>
-      </c>
-      <c r="L19" s="1">
-        <v>68</v>
-      </c>
-      <c r="M19" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19">
-        <v>23072</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
+      <c r="R23">
+        <v>35504</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
         <v>39</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>68</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>3568</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="1">
-        <v>192</v>
-      </c>
-      <c r="L20" s="1">
-        <v>72</v>
-      </c>
-      <c r="M20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20">
-        <v>23088</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>184</v>
-      </c>
-      <c r="C21">
-        <v>68</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>39</v>
-      </c>
-      <c r="F21">
-        <v>1229</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>142</v>
-      </c>
-      <c r="K21" s="1">
-        <v>180</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21">
-        <v>23096</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22">
-        <v>184</v>
-      </c>
-      <c r="C22">
-        <v>68</v>
-      </c>
-      <c r="D22">
-        <v>37</v>
-      </c>
-      <c r="E22">
-        <v>388</v>
-      </c>
-      <c r="F22">
-        <v>2745</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>66</v>
-      </c>
-      <c r="N22">
-        <v>23144</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23">
-        <v>188</v>
-      </c>
-      <c r="C23">
-        <v>68</v>
-      </c>
-      <c r="D23">
-        <v>30</v>
-      </c>
-      <c r="E23">
-        <v>362</v>
-      </c>
-      <c r="F23">
-        <v>636</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>67</v>
-      </c>
-      <c r="N23">
-        <v>35504</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>8</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2163,27 +2471,36 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>574</v>
+        <v>0</v>
       </c>
       <c r="G24">
+        <v>3568</v>
+      </c>
+      <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24">
+      <c r="I24" t="s">
+        <v>256</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24">
         <v>36856</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="S24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B25">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C25">
         <v>68</v>
@@ -2192,166 +2509,208 @@
         <v>0</v>
       </c>
       <c r="E25">
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1229</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>256</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25">
+        <v>36864</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>184</v>
+      </c>
+      <c r="C26">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>388</v>
+      </c>
+      <c r="G26">
+        <v>2745</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>64</v>
+      </c>
+      <c r="R26">
+        <v>39592</v>
+      </c>
+      <c r="S26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27">
+        <v>188</v>
+      </c>
+      <c r="C27">
+        <v>68</v>
+      </c>
+      <c r="D27">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>317</v>
+      </c>
+      <c r="G27">
+        <v>1698</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>188</v>
+      </c>
+      <c r="C28">
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>362</v>
+      </c>
+      <c r="G28">
+        <v>636</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>574</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>188</v>
+      </c>
+      <c r="C30">
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>13</v>
       </c>
-      <c r="F25">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>1164</v>
       </c>
-      <c r="G25">
+      <c r="H30" t="b">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
         <v>16</v>
       </c>
-      <c r="N25">
-        <v>36864</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>72</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1317</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>160</v>
-      </c>
-      <c r="N26">
-        <v>39592</v>
-      </c>
-      <c r="O26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27">
-        <v>192</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>11</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28">
-        <v>192</v>
-      </c>
-      <c r="C28">
-        <v>72</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>11</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29">
-        <v>192</v>
-      </c>
-      <c r="C29">
-        <v>72</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>9</v>
-      </c>
-      <c r="F29">
-        <v>1212</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30">
-        <v>192</v>
-      </c>
-      <c r="C30">
-        <v>72</v>
-      </c>
-      <c r="D30">
-        <v>35</v>
-      </c>
-      <c r="E30">
-        <v>22</v>
-      </c>
-      <c r="F30">
-        <v>1308</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B31">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>72</v>
@@ -2360,102 +2719,138 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>256</v>
+      </c>
+      <c r="J31">
         <v>1</v>
       </c>
-      <c r="H31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B32">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>72</v>
       </c>
       <c r="D32">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1224</v>
+        <v>0</v>
       </c>
       <c r="G32">
+        <v>1271</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>263</v>
+      </c>
+      <c r="J32">
         <v>1</v>
       </c>
-      <c r="H32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="K32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B33">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D33">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>648</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B34">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>72</v>
       </c>
       <c r="D34">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
+        <v>749</v>
+      </c>
+      <c r="H34" t="b">
         <v>1</v>
       </c>
-      <c r="H34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C35">
         <v>72</v>
@@ -2467,46 +2862,64 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1109</v>
+        <v>270</v>
       </c>
       <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>256</v>
+      </c>
+      <c r="J35">
         <v>1</v>
       </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="K35" t="s">
+        <v>267</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B36">
         <v>192</v>
       </c>
       <c r="C36">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>268</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>269</v>
+      </c>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B37">
         <v>192</v>
@@ -2518,22 +2931,31 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J37">
         <v>1</v>
       </c>
-      <c r="H37" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="K37" t="s">
+        <v>158</v>
+      </c>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B38">
         <v>192</v>
@@ -2545,22 +2967,31 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>348</v>
+        <v>11</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
+        <v>1303</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>263</v>
+      </c>
+      <c r="J38">
         <v>1</v>
       </c>
-      <c r="H38" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="K38" t="s">
+        <v>270</v>
+      </c>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B39">
         <v>192</v>
@@ -2572,22 +3003,31 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="F39">
-        <v>1155</v>
+        <v>0</v>
       </c>
       <c r="G39">
+        <v>1212</v>
+      </c>
+      <c r="H39" t="b">
         <v>1</v>
       </c>
-      <c r="H39" t="s">
-        <v>77</v>
-      </c>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="I39" t="s">
+        <v>256</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>149</v>
+      </c>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B40">
         <v>192</v>
@@ -2596,52 +3036,70 @@
         <v>72</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E40">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="F40">
+        <v>22</v>
+      </c>
+      <c r="G40">
+        <v>1308</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>256</v>
+      </c>
+      <c r="J40">
         <v>1</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>76</v>
-      </c>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="K40" t="s">
+        <v>271</v>
+      </c>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C41">
         <v>72</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>3018</v>
+        <v>24</v>
       </c>
       <c r="G41">
+        <v>2973</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>272</v>
+      </c>
+      <c r="J41">
         <v>1</v>
       </c>
-      <c r="H41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="K41" t="s">
+        <v>273</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B42">
         <v>192</v>
@@ -2650,547 +3108,727 @@
         <v>72</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
+        <v>41</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>256</v>
+      </c>
+      <c r="J42">
         <v>1</v>
       </c>
-      <c r="H42" t="s">
-        <v>78</v>
-      </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="K42" t="s">
+        <v>274</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B43">
         <v>192</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D43">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>79</v>
-      </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11">
+        <v>726</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>256</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>275</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="B44">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="C44">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>279</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>256</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>150</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45">
+        <v>192</v>
+      </c>
+      <c r="C45">
         <v>72</v>
       </c>
-      <c r="F44">
-        <v>1263</v>
-      </c>
-      <c r="G44">
-        <v>0.5</v>
-      </c>
-      <c r="H44" t="s">
-        <v>164</v>
-      </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45">
-        <v>188</v>
-      </c>
-      <c r="C45">
-        <v>68</v>
-      </c>
       <c r="D45">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1311</v>
+        <v>0</v>
       </c>
       <c r="G45">
+        <v>1224</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>251</v>
+      </c>
+      <c r="J45">
         <v>1</v>
       </c>
-      <c r="H45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="K45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B46">
         <v>192</v>
       </c>
       <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>56</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>78</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47">
+        <v>192</v>
+      </c>
+      <c r="C47">
         <v>72</v>
       </c>
-      <c r="D46">
-        <v>37</v>
-      </c>
-      <c r="E46">
-        <v>361</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
+      <c r="D47">
+        <v>56</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>78</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>277</v>
+      </c>
+      <c r="J47">
         <v>1</v>
       </c>
-      <c r="H46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
+      <c r="K47" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>72</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>2203</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>256</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>72</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1109</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>251</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50">
+        <v>192</v>
+      </c>
+      <c r="C50">
+        <v>72</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>274</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>256</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51">
+        <v>192</v>
+      </c>
+      <c r="C51">
+        <v>72</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>270</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>256</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
         <v>68</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1311</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52">
+        <v>192</v>
+      </c>
+      <c r="C52">
+        <v>72</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>348</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>256</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53">
+        <v>192</v>
+      </c>
+      <c r="C53">
+        <v>72</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>49</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1155</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>256</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54">
+        <v>192</v>
+      </c>
+      <c r="C54">
+        <v>72</v>
+      </c>
+      <c r="D54">
+        <v>30</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>272</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>256</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>72</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>3018</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>256</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>192</v>
+      </c>
+      <c r="C56">
+        <v>72</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>250</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>256</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57">
+        <v>192</v>
+      </c>
+      <c r="C57">
+        <v>72</v>
+      </c>
+      <c r="D57">
+        <v>62</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>18</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>277</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58">
+        <v>224</v>
+      </c>
+      <c r="C58">
+        <v>76</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>72</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1263</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59">
+        <v>188</v>
+      </c>
+      <c r="C59">
         <v>68</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1128</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49">
-        <v>184</v>
-      </c>
-      <c r="C49">
-        <v>68</v>
-      </c>
-      <c r="D49">
-        <v>6</v>
-      </c>
-      <c r="E49">
-        <v>12</v>
-      </c>
-      <c r="F49">
-        <v>667</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>68</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1324</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51">
-        <v>184</v>
-      </c>
-      <c r="C51">
-        <v>68</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>17</v>
-      </c>
-      <c r="F51">
-        <v>554</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>68</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>642</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53">
-        <v>184</v>
-      </c>
-      <c r="C53">
-        <v>68</v>
-      </c>
-      <c r="D53">
-        <v>27</v>
-      </c>
-      <c r="E53">
-        <v>267</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54">
-        <v>176</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>31</v>
-      </c>
-      <c r="E54">
-        <v>338</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>123</v>
-      </c>
-      <c r="B55">
-        <v>176</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>38</v>
-      </c>
-      <c r="E55">
-        <v>293</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>124</v>
-      </c>
-      <c r="B56">
-        <v>184</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>181</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57">
-        <v>184</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>34</v>
-      </c>
-      <c r="E57">
-        <v>290</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58">
-        <v>184</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>314</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59">
-        <v>184</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
       </c>
       <c r="D59">
         <v>38</v>
       </c>
       <c r="E59">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>1311</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C60">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1429</v>
+        <v>361</v>
       </c>
       <c r="G60">
-        <v>2</v>
-      </c>
-      <c r="H60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>256</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="B61">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C61">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1116</v>
+        <v>322</v>
       </c>
       <c r="G61">
-        <v>2</v>
-      </c>
-      <c r="H61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>256</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B62">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>68</v>
       </c>
       <c r="D62">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>2708</v>
+        <v>0</v>
       </c>
       <c r="G62">
+        <v>1720</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>263</v>
+      </c>
+      <c r="J62">
         <v>2</v>
       </c>
-      <c r="H62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="K62" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -3205,21 +3843,30 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1574</v>
+        <v>0</v>
       </c>
       <c r="G63">
+        <v>1077</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>251</v>
+      </c>
+      <c r="J63">
         <v>2</v>
       </c>
-      <c r="H63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="K63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B64">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>68</v>
@@ -3228,21 +3875,30 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="G64">
+        <v>2310</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>256</v>
+      </c>
+      <c r="J64">
         <v>2</v>
       </c>
-      <c r="H64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="K64" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3257,21 +3913,30 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="G65">
+        <v>1311</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>256</v>
+      </c>
+      <c r="J65">
         <v>2</v>
       </c>
-      <c r="H65" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="K65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B66">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>68</v>
@@ -3280,50 +3945,68 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
+        <v>1128</v>
+      </c>
+      <c r="H66" t="b">
         <v>1</v>
       </c>
-      <c r="H66" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="s">
+        <v>256</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C67">
         <v>68</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F67">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="G67">
+        <v>667</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>256</v>
+      </c>
+      <c r="J67">
         <v>2</v>
       </c>
-      <c r="H67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B68">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>68</v>
@@ -3332,21 +4015,30 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="G68">
+        <v>1324</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>256</v>
+      </c>
+      <c r="J68">
         <v>2</v>
       </c>
-      <c r="H68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="K68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B69">
         <v>184</v>
@@ -3355,76 +4047,103 @@
         <v>68</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>243</v>
+        <v>17</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
+        <v>554</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>256</v>
+      </c>
+      <c r="J69">
         <v>2</v>
       </c>
-      <c r="H69" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="K69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B70">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>68</v>
       </c>
       <c r="D70">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1611</v>
+        <v>0</v>
       </c>
       <c r="G70">
+        <v>642</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>256</v>
+      </c>
+      <c r="J70">
         <v>2</v>
       </c>
-      <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="K70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C71">
         <v>68</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>2722</v>
-      </c>
-      <c r="G71" s="8">
+        <v>267</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>256</v>
+      </c>
+      <c r="J71" s="8">
         <v>2</v>
       </c>
-      <c r="H71" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="K71" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B72">
         <v>176</v>
@@ -3433,123 +4152,1066 @@
         <v>0</v>
       </c>
       <c r="D72">
+        <v>31</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>338</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73">
+        <v>176</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>38</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>293</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74">
+        <v>184</v>
+      </c>
+      <c r="C74">
+        <v>68</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>181</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>256</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75">
+        <v>184</v>
+      </c>
+      <c r="C75">
+        <v>68</v>
+      </c>
+      <c r="D75">
+        <v>34</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>290</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>256</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76">
+        <v>184</v>
+      </c>
+      <c r="C76">
+        <v>68</v>
+      </c>
+      <c r="D76">
+        <v>38</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>347</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>286</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77">
+        <v>184</v>
+      </c>
+      <c r="C77">
+        <v>68</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>314</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>256</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78">
+        <v>184</v>
+      </c>
+      <c r="C78">
+        <v>68</v>
+      </c>
+      <c r="D78">
+        <v>38</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>188</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>256</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>68</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>718</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>263</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="K79" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>68</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1429</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>256</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>68</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>1103</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>256</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82">
+        <v>184</v>
+      </c>
+      <c r="C82">
+        <v>68</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>15</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1598</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>290</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83">
+        <v>184</v>
+      </c>
+      <c r="C83">
+        <v>68</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>36</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>1116</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>256</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84">
+        <v>184</v>
+      </c>
+      <c r="C84">
+        <v>68</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>65</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>256</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85">
+        <v>184</v>
+      </c>
+      <c r="C85">
+        <v>68</v>
+      </c>
+      <c r="D85">
+        <v>30</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85">
+        <v>2708</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>256</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>68</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1574</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>256</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87">
+        <v>184</v>
+      </c>
+      <c r="C87">
+        <v>68</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>26</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>639</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>256</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>68</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>571</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>256</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89">
+        <v>184</v>
+      </c>
+      <c r="C89">
+        <v>68</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>211</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>256</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>68</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>594</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>256</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>68</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>241</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>293</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>68</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>595</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>256</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93">
+        <v>184</v>
+      </c>
+      <c r="C93">
+        <v>68</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>58</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>1131</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>256</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94">
+        <v>184</v>
+      </c>
+      <c r="C94">
+        <v>68</v>
+      </c>
+      <c r="D94">
+        <v>30</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>243</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>256</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95">
+        <v>184</v>
+      </c>
+      <c r="C95">
+        <v>68</v>
+      </c>
+      <c r="D95">
+        <v>34</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>29</v>
+      </c>
+      <c r="G95">
+        <v>1611</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>256</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>68</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>2722</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>256</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97">
+        <v>176</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
         <v>37</v>
       </c>
-      <c r="E72">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
         <v>361</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
-        <v>134</v>
-      </c>
-      <c r="B73">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98">
         <v>192</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
+      <c r="C98">
+        <v>72</v>
+      </c>
+      <c r="D98">
         <v>62</v>
       </c>
-      <c r="E73">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
         <v>18</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>135</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>277</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
         <v>72</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
         <v>550</v>
       </c>
-      <c r="G74">
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>256</v>
+      </c>
+      <c r="J99">
         <v>1</v>
       </c>
-      <c r="H74" t="s">
+      <c r="K99" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75">
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>72</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>593</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
+        <v>256</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101">
         <v>192</v>
       </c>
-      <c r="C75">
+      <c r="C101">
         <v>72</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
         <v>304</v>
       </c>
-      <c r="F75">
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
         <v>2726</v>
       </c>
-      <c r="G75">
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>297</v>
+      </c>
+      <c r="J101">
         <v>1</v>
       </c>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
+      <c r="K101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
         <v>46</v>
       </c>
-      <c r="B76">
+      <c r="B102">
         <v>180</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
         <v>50</v>
       </c>
-      <c r="E76">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
         <v>123</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
-        <v>92</v>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3560,11 +5222,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3575,59 +5237,63 @@
     <col min="4" max="4" width="5.5703125" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7" style="10" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" customWidth="1"/>
-    <col min="13" max="13" width="70.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7" style="10" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+    <col min="14" max="14" width="70.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="4" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="G1" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>246</v>
+      <c r="H1" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="M1" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C2" s="10">
         <v>28</v>
@@ -3641,34 +5307,37 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>16</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>169</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C3" s="10">
         <v>28</v>
@@ -3682,10 +5351,10 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="G3">
+        <v>108</v>
+      </c>
+      <c r="H3" s="10">
         <v>0</v>
       </c>
       <c r="I3">
@@ -3695,18 +5364,21 @@
         <v>0</v>
       </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>1225</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3723,34 +5395,37 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4">
+        <v>115</v>
+      </c>
+      <c r="H4" s="10">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>8</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>196</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C5" s="10">
         <v>40</v>
@@ -3764,10 +5439,10 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
+        <v>116</v>
+      </c>
+      <c r="H5" s="10">
         <v>0</v>
       </c>
       <c r="I5">
@@ -3777,21 +5452,24 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>1111</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C6" s="10">
         <v>40</v>
@@ -3805,34 +5483,37 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>9</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C7" s="10">
         <v>40</v>
@@ -3846,17 +5527,17 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
+        <v>115</v>
+      </c>
+      <c r="H7" s="10">
         <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -3864,16 +5545,19 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C8" s="10">
         <v>40</v>
@@ -3887,10 +5571,10 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
         <v>0</v>
       </c>
       <c r="I8">
@@ -3900,21 +5584,24 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C9" s="10">
         <v>40</v>
@@ -3928,11 +5615,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="10">
-        <v>30</v>
-      </c>
-      <c r="H9">
-        <v>30</v>
+      <c r="G9">
+        <v>116</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3944,18 +5631,21 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>250</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C10" s="10">
         <v>40</v>
@@ -3969,17 +5659,17 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10">
+        <v>116</v>
+      </c>
+      <c r="H10" s="10">
         <v>30</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>30</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3987,16 +5677,19 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="C11" s="10">
         <v>40</v>
@@ -4010,116 +5703,125 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+      <c r="G11">
+        <v>116</v>
+      </c>
+      <c r="H11" s="10">
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
+        <v>350</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="10">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>292</v>
+      </c>
+      <c r="E12">
+        <v>144</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>116</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>227</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="10">
-        <v>64</v>
-      </c>
-      <c r="D12">
-        <v>320</v>
-      </c>
-      <c r="E12">
-        <v>172</v>
-      </c>
-      <c r="F12">
-        <v>212</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>553</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="C13" s="10">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="E13">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F13">
-        <v>212</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>116</v>
+      </c>
+      <c r="H13" s="10">
         <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1231</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C14" s="10">
         <v>64</v>
@@ -4133,10 +5835,10 @@
       <c r="F14">
         <v>212</v>
       </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="G14">
+        <v>129</v>
+      </c>
+      <c r="H14" s="10">
         <v>0</v>
       </c>
       <c r="I14">
@@ -4146,21 +5848,24 @@
         <v>0</v>
       </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>1222</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>731</v>
       </c>
-      <c r="M14" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C15" s="10">
         <v>64</v>
@@ -4174,34 +5879,37 @@
       <c r="F15">
         <v>212</v>
       </c>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="G15">
+        <v>129</v>
+      </c>
+      <c r="H15" s="10">
         <v>0</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>11</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>210</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C16" s="10">
         <v>64</v>
@@ -4215,34 +5923,37 @@
       <c r="F16">
         <v>212</v>
       </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="G16">
+        <v>126</v>
+      </c>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>15</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>550</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C17" s="10">
         <v>64</v>
@@ -4256,10 +5967,10 @@
       <c r="F17">
         <v>212</v>
       </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="G17">
+        <v>129</v>
+      </c>
+      <c r="H17" s="10">
         <v>0</v>
       </c>
       <c r="I17">
@@ -4272,18 +5983,21 @@
         <v>0</v>
       </c>
       <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>577</v>
       </c>
-      <c r="M17" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C18" s="10">
         <v>64</v>
@@ -4297,10 +6011,10 @@
       <c r="F18">
         <v>212</v>
       </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="G18">
+        <v>129</v>
+      </c>
+      <c r="H18" s="10">
         <v>0</v>
       </c>
       <c r="I18">
@@ -4310,21 +6024,24 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1222</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>731</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1078</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C19" s="10">
         <v>64</v>
@@ -4338,34 +6055,37 @@
       <c r="F19">
         <v>212</v>
       </c>
-      <c r="G19" s="10">
-        <v>74</v>
-      </c>
-      <c r="H19">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
         <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C20" s="10">
         <v>64</v>
@@ -4379,11 +6099,11 @@
       <c r="F20">
         <v>212</v>
       </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+      <c r="G20">
+        <v>129</v>
+      </c>
+      <c r="H20" s="10">
+        <v>32</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4392,21 +6112,24 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1078</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C21" s="10">
         <v>64</v>
@@ -4420,34 +6143,37 @@
       <c r="F21">
         <v>212</v>
       </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+      <c r="G21">
+        <v>129</v>
+      </c>
+      <c r="H21" s="10">
+        <v>74</v>
       </c>
       <c r="I21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="C22" s="10">
         <v>64</v>
@@ -4456,39 +6182,42 @@
         <v>320</v>
       </c>
       <c r="E22">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F22">
         <v>212</v>
       </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="G22">
+        <v>131</v>
+      </c>
+      <c r="H22" s="10">
         <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>123</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C23" s="10">
         <v>64</v>
@@ -4497,15 +6226,15 @@
         <v>320</v>
       </c>
       <c r="E23">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F23">
         <v>212</v>
       </c>
-      <c r="G23" s="10">
-        <v>32</v>
-      </c>
-      <c r="H23">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
         <v>0</v>
       </c>
       <c r="I23">
@@ -4515,21 +6244,24 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="C24" s="10">
         <v>64</v>
@@ -4538,39 +6270,42 @@
         <v>320</v>
       </c>
       <c r="E24">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F24">
         <v>212</v>
       </c>
-      <c r="G24" s="10">
-        <v>34</v>
-      </c>
-      <c r="H24">
+      <c r="G24">
+        <v>146</v>
+      </c>
+      <c r="H24" s="10">
         <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1274</v>
+      </c>
+      <c r="M24">
+        <v>744</v>
+      </c>
+      <c r="N24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="C25" s="10">
         <v>64</v>
@@ -4579,39 +6314,42 @@
         <v>320</v>
       </c>
       <c r="E25">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F25">
         <v>212</v>
       </c>
-      <c r="G25" s="10">
-        <v>74</v>
-      </c>
-      <c r="H25">
+      <c r="G25">
+        <v>151</v>
+      </c>
+      <c r="H25" s="10">
         <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>49</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="C26" s="10">
         <v>64</v>
@@ -4620,39 +6358,42 @@
         <v>320</v>
       </c>
       <c r="E26">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F26">
         <v>212</v>
       </c>
-      <c r="G26" s="10">
-        <v>30</v>
-      </c>
-      <c r="H26">
+      <c r="G26">
+        <v>151</v>
+      </c>
+      <c r="H26" s="10">
         <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>363</v>
+        <v>11</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>680</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>585</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="C27" s="10">
         <v>64</v>
@@ -4661,39 +6402,42 @@
         <v>320</v>
       </c>
       <c r="E27">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F27">
         <v>212</v>
       </c>
-      <c r="G27" s="10">
-        <v>37</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>34</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C28" s="10">
         <v>64</v>
@@ -4707,10 +6451,10 @@
       <c r="F28">
         <v>212</v>
       </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="G28">
+        <v>147</v>
+      </c>
+      <c r="H28" s="10">
         <v>0</v>
       </c>
       <c r="I28">
@@ -4720,21 +6464,24 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>744</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2361</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C29" s="10">
         <v>64</v>
@@ -4748,34 +6495,37 @@
       <c r="F29">
         <v>212</v>
       </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="G29">
+        <v>151</v>
+      </c>
+      <c r="H29" s="10">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1940</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C30" s="10">
         <v>64</v>
@@ -4789,34 +6539,37 @@
       <c r="F30">
         <v>212</v>
       </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
+      <c r="G30">
+        <v>151</v>
+      </c>
+      <c r="H30" s="10">
+        <v>30</v>
       </c>
       <c r="I30">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>585</v>
+        <v>363</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="M30">
+        <v>680</v>
+      </c>
+      <c r="N30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B31" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C31" s="10">
         <v>64</v>
@@ -4830,10 +6583,10 @@
       <c r="F31">
         <v>212</v>
       </c>
-      <c r="G31" s="10">
-        <v>0</v>
-      </c>
-      <c r="H31">
+      <c r="G31">
+        <v>151</v>
+      </c>
+      <c r="H31" s="10">
         <v>0</v>
       </c>
       <c r="I31">
@@ -4843,21 +6596,24 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>2361</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1940</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C32" s="10">
         <v>64</v>
@@ -4871,10 +6627,10 @@
       <c r="F32">
         <v>212</v>
       </c>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="G32">
+        <v>151</v>
+      </c>
+      <c r="H32" s="10">
         <v>0</v>
       </c>
       <c r="I32">
@@ -4884,21 +6640,24 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1940</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1274</v>
+      </c>
+      <c r="M32">
+        <v>753</v>
+      </c>
+      <c r="N32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C33" s="10">
         <v>64</v>
@@ -4912,11 +6671,11 @@
       <c r="F33">
         <v>212</v>
       </c>
-      <c r="G33" s="10">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>37</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -4925,21 +6684,24 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1940</v>
+        <v>532</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C34" s="10">
         <v>64</v>
@@ -4953,11 +6715,11 @@
       <c r="F34">
         <v>212</v>
       </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
+      <c r="G34">
+        <v>159</v>
+      </c>
+      <c r="H34" s="10">
+        <v>32</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4966,21 +6728,24 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>693</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C35" s="10">
         <v>64</v>
@@ -4994,17 +6759,17 @@
       <c r="F35">
         <v>212</v>
       </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35">
+      <c r="G35">
+        <v>159</v>
+      </c>
+      <c r="H35" s="10">
         <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -5012,16 +6777,19 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="M35">
+        <v>50</v>
+      </c>
+      <c r="N35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C36" s="10">
         <v>64</v>
@@ -5035,17 +6803,17 @@
       <c r="F36">
         <v>212</v>
       </c>
-      <c r="G36" s="10">
-        <v>37</v>
-      </c>
-      <c r="H36">
+      <c r="G36">
+        <v>159</v>
+      </c>
+      <c r="H36" s="10">
         <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -5053,16 +6821,19 @@
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="M36">
+        <v>761</v>
+      </c>
+      <c r="N36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="C37" s="10">
         <v>64</v>
@@ -5076,10 +6847,10 @@
       <c r="F37">
         <v>212</v>
       </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37">
+      <c r="G37">
+        <v>159</v>
+      </c>
+      <c r="H37" s="10">
         <v>0</v>
       </c>
       <c r="I37">
@@ -5089,13 +6860,148 @@
         <v>0</v>
       </c>
       <c r="K37">
+        <v>290</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="10">
+        <v>64</v>
+      </c>
+      <c r="D38">
+        <v>320</v>
+      </c>
+      <c r="E38">
+        <v>168</v>
+      </c>
+      <c r="F38">
+        <v>212</v>
+      </c>
+      <c r="G38">
+        <v>159</v>
+      </c>
+      <c r="H38" s="10">
+        <v>37</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>533</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="10">
+        <v>64</v>
+      </c>
+      <c r="D39">
+        <v>320</v>
+      </c>
+      <c r="E39">
+        <v>168</v>
+      </c>
+      <c r="F39">
+        <v>212</v>
+      </c>
+      <c r="G39">
+        <v>159</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>221</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>242</v>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="10">
+        <v>64</v>
+      </c>
+      <c r="D40">
+        <v>320</v>
+      </c>
+      <c r="E40">
+        <v>168</v>
+      </c>
+      <c r="F40">
+        <v>212</v>
+      </c>
+      <c r="G40">
+        <v>159</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>221</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Information/LG+Samsung Model Info.xlsx
+++ b/Information/LG+Samsung Model Info.xlsx
@@ -14,8 +14,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hbeham</author>
+  </authors>
+  <commentList>
+    <comment ref="N2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hbeham:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to same firmware size as LM340S, it's assumed to use 188 bytes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="338">
   <si>
     <t>LD</t>
   </si>
@@ -86,9 +120,6 @@
     <t>Zwergel\xxLV579S-ZB00001.TLL</t>
   </si>
   <si>
-    <t>derartur\xxLV579S-ZB00001.TLL</t>
-  </si>
-  <si>
     <t>Stabilo\xxLW4500-ZB00001.TLL</t>
   </si>
   <si>
@@ -113,12 +144,6 @@
     <t>Hollerbachr\xxLW650S-ZC00002.TLL</t>
   </si>
   <si>
-    <t>Gargamel\xxLW650S-ZC00001.TLL</t>
-  </si>
-  <si>
-    <t>LuiGi\xxLW659S-ZC00001.TLL</t>
-  </si>
-  <si>
     <t>franzler\xxLW980S-ZA00001.TLL</t>
   </si>
   <si>
@@ -371,9 +396,6 @@
     <t>LW5500</t>
   </si>
   <si>
-    <t>alex-07\xxLW5500-ZE00001.tll</t>
-  </si>
-  <si>
     <t>LW5590</t>
   </si>
   <si>
@@ -425,9 +447,6 @@
     <t>176 / -</t>
   </si>
   <si>
-    <t>LD, LE, LK450, LW4500, LW5400</t>
-  </si>
-  <si>
     <t>180 / -</t>
   </si>
   <si>
@@ -803,9 +822,6 @@
     <t>NeuerScan\xxLM340S-ZA00001.TLL</t>
   </si>
   <si>
-    <t>2013-05-19\xxLM620S-ZE99999.TLL</t>
-  </si>
-  <si>
     <t>___</t>
   </si>
   <si>
@@ -926,17 +942,134 @@
     <t>LW5500, LW659S, LW570S, LV579S, LW5590, LK950S, LW980S, LW650S, LV470S, LW579S, LV375S, LV570S</t>
   </si>
   <si>
-    <t>LM620S, LM760S, LM640S, PM970S, LM660S, PM670S, LMAL, OBAL, LM640T, LM671S, LM669S, LS575S, LS570S</t>
-  </si>
-  <si>
-    <t>LA7408, LA6928, LA6918, LA6608</t>
+    <t>DSchönherr\xxLA6608-ZA00001.TLL</t>
+  </si>
+  <si>
+    <t>FW4.40.27\xxLM620S-ZE00008.TLL</t>
+  </si>
+  <si>
+    <t>FW4.40.27\xxLM620S-ZE00010.TLL</t>
+  </si>
+  <si>
+    <t>FW4.40.27\xxLM620S-ZE00001.TLL</t>
+  </si>
+  <si>
+    <t>LM670S</t>
+  </si>
+  <si>
+    <t>JürgenMoser\xxLM670S-ZA00282.TLL</t>
+  </si>
+  <si>
+    <t>KlausKonstanz\xxLM760S-ZB00001.TLL</t>
+  </si>
+  <si>
+    <t>LN4607</t>
+  </si>
+  <si>
+    <t>SOppel\xxLN4607-ZJ00001.TLL</t>
+  </si>
+  <si>
+    <t>UlrichBeer\xxLN5406-ZA00001.TLL</t>
+  </si>
+  <si>
+    <t>LN5708</t>
+  </si>
+  <si>
+    <t>JoachimKönigBaltes\xxLN5708-ZA00001e.TLL</t>
+  </si>
+  <si>
+    <t>LP632H</t>
+  </si>
+  <si>
+    <t>KristianStolze\xxLP632H-ZA00001.TLL</t>
+  </si>
+  <si>
+    <t>LT380H</t>
+  </si>
+  <si>
+    <t>SJahre\xxLT380H-ZA00001.TLL</t>
+  </si>
+  <si>
+    <t>MichaelDittrich\xxLV579S-ZB00001.TLL</t>
+  </si>
+  <si>
+    <t>MichaelDittrich\xxLW5500-ZE00001.tll</t>
+  </si>
+  <si>
+    <t>MichaelDittrich\xxLW650S-ZC00001.TLL</t>
+  </si>
+  <si>
+    <t>MichaelDittrich\xxLW659S-ZC00001a.TLL</t>
+  </si>
+  <si>
+    <t>MichaelDittrich\xxLW659S-ZC00003a.TLL</t>
+  </si>
+  <si>
+    <t>MichaelDittrich\xxLW659S-ZC00030.TLL</t>
+  </si>
+  <si>
+    <t>PN6500</t>
+  </si>
+  <si>
+    <t>Backlit\xxPN6500-ZB00001.TLL</t>
+  </si>
+  <si>
+    <t>PN6506</t>
+  </si>
+  <si>
+    <t>CarstenErdtmann\xxPN6506-ZB00001.TLL</t>
+  </si>
+  <si>
+    <t>PN6500, PN6506</t>
+  </si>
+  <si>
+    <t>LM620S, LM760S, LM640S, PM970S, LM660S, PM670S, LMAL, OBAL, LM670S, LM640T, LM671S, LM669S, LS575S, LS570S</t>
+  </si>
+  <si>
+    <t>LA6608, LN5708, LA7408, LA6928, LA6918, LN4607</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>LX</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>? / 76</t>
+  </si>
+  <si>
+    <t>LP (different format as LN)</t>
+  </si>
+  <si>
+    <t>212 / ?</t>
+  </si>
+  <si>
+    <t>LD, LE, LK450, LW4500, LW5400, LX</t>
+  </si>
+  <si>
+    <t>212 / 76</t>
+  </si>
+  <si>
+    <t>LT (different format as PN)</t>
+  </si>
+  <si>
+    <t>LH3000 (different format as other LH)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -951,6 +1084,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1305,11 +1451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S102"/>
+  <dimension ref="A1:S116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomLeft" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1333,57 +1479,57 @@
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>164</v>
@@ -1416,24 +1562,24 @@
         <v>7</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O2" s="1">
         <v>68</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="S2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1472,15 +1618,15 @@
         <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="S3" t="s">
-        <v>136</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B4">
         <v>256</v>
@@ -1504,16 +1650,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J4">
         <v>0.5</v>
       </c>
       <c r="K4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N4" s="1">
         <v>256</v>
@@ -1522,36 +1668,36 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="R4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="S4" t="s">
-        <v>133</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="C5">
         <v>92</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="G5">
-        <v>1292</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -1563,7 +1709,7 @@
         <v>0.5</v>
       </c>
       <c r="K5" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="M5" t="s">
         <v>0</v>
@@ -1575,45 +1721,45 @@
         <v>9</v>
       </c>
       <c r="R5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="S5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B6">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>92</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1292</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J6">
         <v>0.5</v>
       </c>
       <c r="K6" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M6" t="s">
         <v>1</v>
@@ -1625,45 +1771,45 @@
         <v>9</v>
       </c>
       <c r="R6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="S6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="C7">
         <v>92</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G7">
-        <v>1342</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J7">
         <v>0.5</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="M7" t="s">
         <v>2</v>
@@ -1675,15 +1821,15 @@
         <v>9</v>
       </c>
       <c r="R7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="S7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1701,22 +1847,22 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>500</v>
+        <v>1342</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J8">
         <v>0.5</v>
       </c>
       <c r="K8" t="s">
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N8" s="1">
         <v>176</v>
@@ -1725,18 +1871,18 @@
         <v>9</v>
       </c>
       <c r="R8" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="S8" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>92</v>
@@ -1748,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J9">
         <v>0.5</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>253</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N9" s="1">
         <v>184</v>
@@ -1775,33 +1921,33 @@
         <v>68</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R9" t="s">
-        <v>146</v>
+        <v>331</v>
       </c>
       <c r="S9" t="s">
-        <v>145</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B10">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1809,11 +1955,14 @@
       <c r="H10" t="b">
         <v>0</v>
       </c>
+      <c r="I10" t="s">
+        <v>251</v>
+      </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
         <v>8</v>
@@ -1825,12 +1974,18 @@
         <v>68</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="R10" t="s">
+        <v>335</v>
+      </c>
+      <c r="S10" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>176</v>
@@ -1839,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1857,30 +2012,30 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="N11" s="1">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="O11" s="1">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="R11" t="s">
+        <v>333</v>
+      </c>
+      <c r="S11" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>176</v>
@@ -1889,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1907,30 +2062,27 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M12" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N12" s="1">
         <v>192</v>
       </c>
       <c r="O12" s="1">
-        <v>72</v>
-      </c>
-      <c r="P12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R12">
-        <v>6936</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>95</v>
+        <v>-72</v>
+      </c>
+      <c r="R12" t="s">
+        <v>148</v>
+      </c>
+      <c r="S12" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>176</v>
@@ -1939,13 +2091,13 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>248</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1957,27 +2109,30 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="N13" s="1">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="O13" s="1">
-        <v>-72</v>
-      </c>
-      <c r="R13">
-        <v>6944</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+      <c r="P13" t="s">
+        <v>150</v>
+      </c>
+      <c r="R13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>88</v>
       </c>
       <c r="B14">
         <v>176</v>
@@ -1986,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2004,33 +2159,27 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="L14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M14" t="s">
-        <v>109</v>
-      </c>
-      <c r="N14" s="1">
-        <v>188</v>
+        <v>328</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="O14" s="1">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14">
-        <v>11008</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="B15">
         <v>176</v>
@@ -2039,13 +2188,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2057,45 +2206,39 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="M15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N15" s="1">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O15" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15">
-        <v>15936</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B16">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2107,30 +2250,24 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M16" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="N16" s="1">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="O16" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
-      </c>
-      <c r="R16">
-        <v>15960</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B17">
         <v>164</v>
@@ -2139,13 +2276,13 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2157,30 +2294,21 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M17" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="N17" s="1">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" t="s">
-        <v>9</v>
-      </c>
-      <c r="R17">
-        <v>16024</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B18">
         <v>164</v>
@@ -2195,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2207,30 +2335,30 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M18" t="s">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="N18" s="1">
         <v>184</v>
       </c>
       <c r="O18" s="1">
-        <v>-68</v>
+        <v>68</v>
       </c>
       <c r="P18" t="s">
-        <v>9</v>
-      </c>
-      <c r="R18">
-        <v>17136</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>151</v>
+        <v>38</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B19">
         <v>164</v>
@@ -2239,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2257,30 +2385,30 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M19" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="N19" s="1">
         <v>184</v>
       </c>
-      <c r="O19" s="1">
-        <v>68</v>
+      <c r="O19" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="P19" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="R19">
-        <v>23072</v>
+        <v>6936</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>301</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B20">
         <v>164</v>
@@ -2295,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2307,30 +2435,30 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="M20" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="N20" s="1">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="O20" s="1">
-        <v>72</v>
+        <v>-68</v>
       </c>
       <c r="P20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20">
+        <v>6944</v>
+      </c>
+      <c r="S20" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="R20">
-        <v>23088</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B21">
         <v>164</v>
@@ -2339,13 +2467,13 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2357,30 +2485,30 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="M21" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="N21" s="1">
-        <v>180</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>9</v>
+        <v>184</v>
+      </c>
+      <c r="O21" s="1">
+        <v>68</v>
       </c>
       <c r="P21" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21">
+        <v>11008</v>
+      </c>
+      <c r="S21" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="R21">
-        <v>23096</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B22">
         <v>164</v>
@@ -2389,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2407,100 +2535,130 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="M22" t="s">
+        <v>327</v>
+      </c>
+      <c r="N22" s="1">
+        <v>176</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="R22">
-        <v>23144</v>
+        <v>15936</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23">
+        <v>164</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>147</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="1">
+        <v>192</v>
+      </c>
+      <c r="O23" s="1">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s">
         <v>38</v>
       </c>
-      <c r="B23">
-        <v>176</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>34</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>310</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>13</v>
-      </c>
       <c r="R23">
-        <v>35504</v>
+        <v>15960</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="C24">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="G24">
-        <v>3568</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>63</v>
+        <v>13</v>
+      </c>
+      <c r="M24" t="s">
+        <v>326</v>
+      </c>
+      <c r="N24" s="1">
+        <v>212</v>
+      </c>
+      <c r="O24" s="1">
+        <v>76</v>
+      </c>
+      <c r="P24" t="s">
+        <v>150</v>
       </c>
       <c r="R24">
-        <v>36856</v>
+        <v>16024</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>49</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>68</v>
@@ -2509,36 +2667,48 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1229</v>
+        <v>3568</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>14</v>
+        <v>60</v>
+      </c>
+      <c r="M25" t="s">
+        <v>129</v>
+      </c>
+      <c r="N25" s="1">
+        <v>180</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" t="s">
+        <v>39</v>
       </c>
       <c r="R25">
-        <v>36864</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>303</v>
+        <v>16232</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>184</v>
@@ -2547,71 +2717,80 @@
         <v>68</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F26">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>2745</v>
+        <v>1229</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="R26">
-        <v>39592</v>
-      </c>
-      <c r="S26" t="s">
-        <v>304</v>
+        <v>16376</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C27">
         <v>68</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>317</v>
+        <v>388</v>
       </c>
       <c r="G27">
-        <v>1698</v>
+        <v>2745</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
+      <c r="I27" t="s">
+        <v>251</v>
+      </c>
       <c r="J27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>261</v>
+        <v>61</v>
+      </c>
+      <c r="R27">
+        <v>17136</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B28">
         <v>188</v>
@@ -2620,48 +2799,54 @@
         <v>68</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G28">
-        <v>636</v>
+        <v>1698</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>65</v>
+        <v>256</v>
+      </c>
+      <c r="R28">
+        <v>17240</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C29">
         <v>68</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="G29">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -2670,7 +2855,13 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="R29">
+        <v>23072</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2678,7 +2869,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>68</v>
@@ -2687,13 +2878,13 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1164</v>
+        <v>574</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -2702,47 +2893,56 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="R30">
+        <v>23088</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C31">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1164</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>262</v>
+        <v>16</v>
+      </c>
+      <c r="R31">
+        <v>23096</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2760,24 +2960,30 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1271</v>
+        <v>0</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>298</v>
+      </c>
+      <c r="R32">
+        <v>23144</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2795,24 +3001,30 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>648</v>
+        <v>1271</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>258</v>
+      </c>
+      <c r="R33">
+        <v>35504</v>
+      </c>
+      <c r="S33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2830,27 +3042,33 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>749</v>
+        <v>648</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>259</v>
+      </c>
+      <c r="R34">
+        <v>36856</v>
+      </c>
+      <c r="S34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B35">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>72</v>
@@ -2862,64 +3080,76 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1242</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="R35">
+        <v>36864</v>
+      </c>
+      <c r="S35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="R36">
+        <v>39592</v>
+      </c>
+      <c r="S36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B37">
         <v>192</v>
@@ -2931,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2943,25 +3173,25 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B38">
         <v>192</v>
       </c>
       <c r="C38">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2973,25 +3203,25 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1303</v>
+        <v>0</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="s">
+        <v>262</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
         <v>263</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
-        <v>270</v>
-      </c>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B39">
         <v>192</v>
@@ -3003,31 +3233,31 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1212</v>
+        <v>0</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B40">
         <v>192</v>
@@ -3036,34 +3266,34 @@
         <v>72</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F40">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B41">
         <v>192</v>
@@ -3072,34 +3302,34 @@
         <v>72</v>
       </c>
       <c r="D41">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F41">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>2973</v>
+        <v>1212</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B42">
         <v>192</v>
@@ -3111,31 +3341,31 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>41</v>
+        <v>1304</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B43">
         <v>192</v>
@@ -3144,34 +3374,34 @@
         <v>72</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E43">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G43">
-        <v>726</v>
+        <v>1308</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B44">
         <v>192</v>
@@ -3180,34 +3410,34 @@
         <v>72</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>279</v>
+        <v>24</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2973</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B45">
         <v>192</v>
@@ -3216,16 +3446,16 @@
         <v>72</v>
       </c>
       <c r="D45">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1224</v>
+        <v>41</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -3237,44 +3467,47 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B46">
         <v>192</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D46">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F46">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>251</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B47">
         <v>192</v>
@@ -3283,13 +3516,13 @@
         <v>72</v>
       </c>
       <c r="D47">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3298,27 +3531,27 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C48">
         <v>72</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3327,59 +3560,56 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>2203</v>
+        <v>1224</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>279</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C49">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G49">
-        <v>1109</v>
+        <v>0</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>17</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>192</v>
@@ -3388,13 +3618,13 @@
         <v>72</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3403,21 +3633,21 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B51">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>72</v>
@@ -3429,30 +3659,30 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2203</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>68</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B52">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>72</v>
@@ -3464,27 +3694,27 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1109</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B53">
         <v>192</v>
@@ -3496,30 +3726,30 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="G53">
-        <v>1155</v>
+        <v>0</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B54">
         <v>192</v>
@@ -3528,33 +3758,33 @@
         <v>72</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3572,24 +3802,24 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>3018</v>
+        <v>686</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>18</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="B56">
         <v>192</v>
@@ -3604,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>250</v>
+        <v>348</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3613,18 +3843,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>71</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B57">
         <v>192</v>
@@ -3633,132 +3863,138 @@
         <v>72</v>
       </c>
       <c r="D57">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1233</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>72</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="B58">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="C58">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1263</v>
+        <v>1155</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="s">
+        <v>251</v>
+      </c>
       <c r="J58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B59">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C59">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D59">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G59">
-        <v>1311</v>
+        <v>1</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>251</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="B60">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>72</v>
       </c>
       <c r="D60">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>3018</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c r="B61">
         <v>192</v>
@@ -3773,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3782,62 +4018,62 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C62">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G62">
-        <v>1720</v>
+        <v>0</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="J62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>283</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="C63">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3846,30 +4082,30 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1077</v>
+        <v>671</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
         <v>251</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K63" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3881,65 +4117,59 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>2310</v>
+        <v>685</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="s">
-        <v>256</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K64" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="C65">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1311</v>
+        <v>1263</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K65" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3951,135 +4181,129 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1128</v>
+        <v>1319</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J66">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K66" t="s">
-        <v>19</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>309</v>
       </c>
       <c r="B67">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>667</v>
+        <v>1823</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
-      <c r="I67" t="s">
-        <v>256</v>
-      </c>
       <c r="J67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>20</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C68">
         <v>68</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G68">
-        <v>1324</v>
+        <v>1311</v>
       </c>
       <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68">
         <v>1</v>
       </c>
-      <c r="I68" t="s">
-        <v>256</v>
-      </c>
-      <c r="J68">
-        <v>2</v>
-      </c>
       <c r="K68" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B69">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C69">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E69">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="G69">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>251</v>
+      </c>
+      <c r="J69">
         <v>1</v>
       </c>
-      <c r="I69" t="s">
-        <v>256</v>
-      </c>
-      <c r="J69">
-        <v>2</v>
-      </c>
       <c r="K69" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="C70">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4088,42 +4312,42 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="G70">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>311</v>
       </c>
       <c r="B71">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="C71">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4131,86 +4355,89 @@
       <c r="H71" t="b">
         <v>0</v>
       </c>
-      <c r="I71" t="s">
-        <v>256</v>
-      </c>
       <c r="J71" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>23</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B72">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D72">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1720</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="s">
+        <v>257</v>
+      </c>
       <c r="J72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K72" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B73">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D73">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1077</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="s">
+        <v>246</v>
+      </c>
       <c r="J73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K73" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B74">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>68</v>
@@ -4222,97 +4449,97 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>2310</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K74" t="s">
-        <v>118</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B75">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>68</v>
       </c>
       <c r="D75">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1311</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K75" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B76">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>68</v>
       </c>
       <c r="D76">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1128</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76" t="s">
-        <v>287</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B77">
         <v>184</v>
@@ -4321,71 +4548,71 @@
         <v>68</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F77">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K77" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B78">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>68</v>
       </c>
       <c r="D78">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1324</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K78" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C79">
         <v>68</v>
@@ -4394,30 +4621,30 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>718</v>
+        <v>554</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="J79">
         <v>2</v>
       </c>
       <c r="K79" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -4435,129 +4662,123 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1429</v>
+        <v>642</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J80">
         <v>2</v>
       </c>
       <c r="K80" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C81">
         <v>68</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="G81">
-        <v>1103</v>
+        <v>0</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J81">
         <v>2</v>
       </c>
       <c r="K81" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B82">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C82">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E82">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="G82">
-        <v>1598</v>
+        <v>0</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
-      <c r="I82" t="s">
-        <v>290</v>
-      </c>
       <c r="J82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>291</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B83">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C83">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E83">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="G83">
-        <v>1116</v>
+        <v>0</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B84">
         <v>184</v>
@@ -4566,33 +4787,33 @@
         <v>68</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B85">
         <v>184</v>
@@ -4601,68 +4822,68 @@
         <v>68</v>
       </c>
       <c r="D85">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>290</v>
       </c>
       <c r="G85">
-        <v>2708</v>
+        <v>0</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C86">
         <v>68</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="G86">
-        <v>1574</v>
+        <v>0</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="J86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>30</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B87">
         <v>184</v>
@@ -4674,68 +4895,68 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="G87">
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C88">
         <v>68</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="G88">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B89">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>68</v>
@@ -4747,27 +4968,27 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89" t="s">
-        <v>32</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -4785,24 +5006,24 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>594</v>
+        <v>1429</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J90">
         <v>2</v>
       </c>
       <c r="K90" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4820,27 +5041,27 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>241</v>
+        <v>1103</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="J91">
         <v>2</v>
       </c>
       <c r="K91" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C92">
         <v>68</v>
@@ -4849,30 +5070,30 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>595</v>
+        <v>1598</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="J92">
         <v>2</v>
       </c>
       <c r="K92" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B93">
         <v>184</v>
@@ -4884,30 +5105,30 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J93">
         <v>2</v>
       </c>
       <c r="K93" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B94">
         <v>184</v>
@@ -4916,33 +5137,33 @@
         <v>68</v>
       </c>
       <c r="D94">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>243</v>
+        <v>65</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J94">
         <v>2</v>
       </c>
       <c r="K94" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>184</v>
@@ -4951,33 +5172,33 @@
         <v>68</v>
       </c>
       <c r="D95">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G95">
-        <v>1611</v>
+        <v>2708</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J95">
         <v>2</v>
       </c>
       <c r="K95" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4995,97 +5216,100 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>2722</v>
+        <v>1574</v>
       </c>
       <c r="H96" t="b">
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J96">
         <v>2</v>
       </c>
       <c r="K96" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B97">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D97">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F97">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
+      <c r="I97" t="s">
+        <v>251</v>
+      </c>
       <c r="J97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K97" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B98">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D98">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K98" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C99">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5094,33 +5318,33 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="G99">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K99" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5132,91 +5356,573 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K100" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B101">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>2726</v>
+        <v>0</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K101" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>68</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>594</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>251</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>68</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>241</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>287</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>68</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>595</v>
+      </c>
+      <c r="H104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>251</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105">
+        <v>184</v>
+      </c>
+      <c r="C105">
+        <v>68</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>58</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1131</v>
+      </c>
+      <c r="H105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>251</v>
+      </c>
+      <c r="J105">
+        <v>2</v>
+      </c>
+      <c r="K105" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106">
+        <v>184</v>
+      </c>
+      <c r="C106">
+        <v>68</v>
+      </c>
+      <c r="D106">
+        <v>30</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>243</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>251</v>
+      </c>
+      <c r="J106">
+        <v>2</v>
+      </c>
+      <c r="K106" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107">
+        <v>184</v>
+      </c>
+      <c r="C107">
+        <v>68</v>
+      </c>
+      <c r="D107">
+        <v>34</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>29</v>
+      </c>
+      <c r="G107">
+        <v>1611</v>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>251</v>
+      </c>
+      <c r="J107">
+        <v>2</v>
+      </c>
+      <c r="K107" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>68</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>2722</v>
+      </c>
+      <c r="H108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
+        <v>251</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+      <c r="K108" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109">
+        <v>176</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>37</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>361</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110">
+        <v>192</v>
+      </c>
+      <c r="C110">
+        <v>72</v>
+      </c>
+      <c r="D110">
+        <v>62</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>18</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>271</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>72</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>550</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>251</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>72</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>593</v>
+      </c>
+      <c r="H112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>251</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113">
+        <v>192</v>
+      </c>
+      <c r="C113">
+        <v>72</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>304</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>2726</v>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>291</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>319</v>
+      </c>
+      <c r="B114">
+        <v>212</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>204</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>321</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>76</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>595</v>
+      </c>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0.5</v>
+      </c>
+      <c r="K115" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116">
         <v>180</v>
       </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
         <v>50</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
         <v>123</v>
       </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102" t="s">
-        <v>85</v>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5249,51 +5955,51 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C2" s="10">
         <v>28</v>
@@ -5329,15 +6035,15 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C3" s="10">
         <v>28</v>
@@ -5373,12 +6079,12 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5417,15 +6123,15 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C5" s="10">
         <v>40</v>
@@ -5461,15 +6167,15 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C6" s="10">
         <v>40</v>
@@ -5505,15 +6211,15 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C7" s="10">
         <v>40</v>
@@ -5549,15 +6255,15 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C8" s="10">
         <v>40</v>
@@ -5593,15 +6299,15 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C9" s="10">
         <v>40</v>
@@ -5637,15 +6343,15 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C10" s="10">
         <v>40</v>
@@ -5681,15 +6387,15 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C11" s="10">
         <v>40</v>
@@ -5725,15 +6431,15 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C12" s="10">
         <v>40</v>
@@ -5769,15 +6475,15 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C13" s="10">
         <v>40</v>
@@ -5813,15 +6519,15 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" s="10">
         <v>64</v>
@@ -5857,15 +6563,15 @@
         <v>731</v>
       </c>
       <c r="N14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C15" s="10">
         <v>64</v>
@@ -5901,15 +6607,15 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C16" s="10">
         <v>64</v>
@@ -5945,15 +6651,15 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C17" s="10">
         <v>64</v>
@@ -5989,15 +6695,15 @@
         <v>577</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C18" s="10">
         <v>64</v>
@@ -6033,15 +6739,15 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C19" s="10">
         <v>64</v>
@@ -6077,15 +6783,15 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C20" s="10">
         <v>64</v>
@@ -6121,15 +6827,15 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C21" s="10">
         <v>64</v>
@@ -6165,15 +6871,15 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C22" s="10">
         <v>64</v>
@@ -6209,15 +6915,15 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C23" s="10">
         <v>64</v>
@@ -6253,15 +6959,15 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C24" s="10">
         <v>64</v>
@@ -6297,15 +7003,15 @@
         <v>744</v>
       </c>
       <c r="N24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C25" s="10">
         <v>64</v>
@@ -6341,15 +7047,15 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C26" s="10">
         <v>64</v>
@@ -6385,15 +7091,15 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C27" s="10">
         <v>64</v>
@@ -6429,15 +7135,15 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C28" s="10">
         <v>64</v>
@@ -6473,15 +7179,15 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C29" s="10">
         <v>64</v>
@@ -6517,15 +7223,15 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C30" s="10">
         <v>64</v>
@@ -6561,15 +7267,15 @@
         <v>680</v>
       </c>
       <c r="N30" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C31" s="10">
         <v>64</v>
@@ -6605,15 +7311,15 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C32" s="10">
         <v>64</v>
@@ -6649,15 +7355,15 @@
         <v>753</v>
       </c>
       <c r="N32" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C33" s="10">
         <v>64</v>
@@ -6693,15 +7399,15 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C34" s="10">
         <v>64</v>
@@ -6737,15 +7443,15 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C35" s="10">
         <v>64</v>
@@ -6781,15 +7487,15 @@
         <v>50</v>
       </c>
       <c r="N35" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C36" s="10">
         <v>64</v>
@@ -6825,15 +7531,15 @@
         <v>761</v>
       </c>
       <c r="N36" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C37" s="10">
         <v>64</v>
@@ -6869,15 +7575,15 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C38" s="10">
         <v>64</v>
@@ -6913,15 +7619,15 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B39" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C39" s="10">
         <v>64</v>
@@ -6957,15 +7663,15 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C40" s="10">
         <v>64</v>
@@ -7001,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Information/LG+Samsung Model Info.xlsx
+++ b/Information/LG+Samsung Model Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="9270"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="9270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LG" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="408">
   <si>
     <t>LD</t>
   </si>
@@ -1091,6 +1091,189 @@
   </si>
   <si>
     <t>LK450, LK330</t>
+  </si>
+  <si>
+    <t>Cprime</t>
+  </si>
+  <si>
+    <t>FreeS</t>
+  </si>
+  <si>
+    <t>TivuS</t>
+  </si>
+  <si>
+    <t>PS50C7700</t>
+  </si>
+  <si>
+    <t>ThomasHöhne_CF\channel_list_PS50C7700_1001.scm</t>
+  </si>
+  <si>
+    <t>UE40C6200</t>
+  </si>
+  <si>
+    <t>SamsungBlogNews_20131210\channel_list_UE40C6200_1001.scm</t>
+  </si>
+  <si>
+    <t>UE46C6700</t>
+  </si>
+  <si>
+    <t>C-_und_F-Serie-Favoriten_für_Horst\channel_list_UE46C6700_1001_0103_SL-und-8-Sender-mit-Favoriten.scm</t>
+  </si>
+  <si>
+    <t>LE40D570</t>
+  </si>
+  <si>
+    <t>JHauber_D\channel_list_LE40D570_1101 HD bevorzugt.scm</t>
+  </si>
+  <si>
+    <t>JohannesHauber\channel_list_LE40D570_1101.scm</t>
+  </si>
+  <si>
+    <t>LT27A750</t>
+  </si>
+  <si>
+    <t>Justin\channel_list_LT27A750_1101.scm</t>
+  </si>
+  <si>
+    <t>UE32D5000</t>
+  </si>
+  <si>
+    <t>UMStrehlke\channel_list_UE32D5000_1101.scm</t>
+  </si>
+  <si>
+    <t>UE32D6500</t>
+  </si>
+  <si>
+    <t>ManfredWächtershäuser_D\channel_list_UE32D6500_1101.scm</t>
+  </si>
+  <si>
+    <t>LT24B350</t>
+  </si>
+  <si>
+    <t>DieterHerzberg_B\channel_list_LT24B350_1201.scm</t>
+  </si>
+  <si>
+    <t>LT27C370</t>
+  </si>
+  <si>
+    <t>Anonymous_LT27C370_1201.scm\channel_list_LT27C370_1201.scm</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Serg0_E\new.scm</t>
+  </si>
+  <si>
+    <t>newer</t>
+  </si>
+  <si>
+    <t>Serg0_E\newer.scm</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Marco - SamsungBlobNews_E\test.scm</t>
+  </si>
+  <si>
+    <t>UE32EH5007</t>
+  </si>
+  <si>
+    <t>Serg0_E\channel_list_UE32EH5007_1201.scm</t>
+  </si>
+  <si>
+    <t>channel_list_UE39F5300_1201\channel_list_UE39F5300_1201.scm</t>
+  </si>
+  <si>
+    <t>UE40F6100</t>
+  </si>
+  <si>
+    <t>RainerSonnenschein_F\channel_list_UE40F6100_1201_org.scm</t>
+  </si>
+  <si>
+    <t>UE40F6500</t>
+  </si>
+  <si>
+    <t>ThomasHöhne_CF\channel_list_UE40F6500_1201.scm</t>
+  </si>
+  <si>
+    <t>Marco - SamsungBlobNews_E\channel_list_UE46ES7000_1201.scm</t>
+  </si>
+  <si>
+    <t>UE46F6500</t>
+  </si>
+  <si>
+    <t>channel_list_UE46F6500_1201_nach_update\channel_list_UE46F6500_1201_nach_update.scm</t>
+  </si>
+  <si>
+    <t>SamsungBlogNews_20131210\channel_list_UE46F6500_1201.scm</t>
+  </si>
+  <si>
+    <t>SamsungBlobNews_F_20131116\channel_list_UE46F6500_1201_vor_update.scm</t>
+  </si>
+  <si>
+    <t>renzullicele_F_tivusat\channel_list_UE46F6500_1201.scm</t>
+  </si>
+  <si>
+    <t>UE46F8000</t>
+  </si>
+  <si>
+    <t>C-_und_F-Serie-Favoriten_für_Horst\channel_list_UE46F8000_1201_0102_SL-und-8-Sender-mit-Favoriten.scm</t>
+  </si>
+  <si>
+    <t>UE55F8000</t>
+  </si>
+  <si>
+    <t>PhilRuelle_F\channel_list_UE55F8000_1201.scm</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ThomasKotthoff_F\Test.scm</t>
+  </si>
+  <si>
+    <t>Clone_corrected</t>
+  </si>
+  <si>
+    <t>WilliamMoore_B\Clone_corrected.scm</t>
+  </si>
+  <si>
+    <t>Clone_corrected2</t>
+  </si>
+  <si>
+    <t>WilliamMoore_B\Clone_corrected2.scm</t>
+  </si>
+  <si>
+    <t>Clone_downloaded</t>
+  </si>
+  <si>
+    <t>WilliamMoore_B\Clone_downloaded.scm</t>
+  </si>
+  <si>
+    <t>Clone_org</t>
+  </si>
+  <si>
+    <t>WilliamMoore_B\Clone_org.scm</t>
+  </si>
+  <si>
+    <t>Clone_uploaded</t>
+  </si>
+  <si>
+    <t>WilliamMoore_B\Clone_uploaded.scm</t>
+  </si>
+  <si>
+    <t>Clone-AutoScan-Digital</t>
+  </si>
+  <si>
+    <t>Vorher_Nachher\Clone-AutoScan-Digital.scm</t>
+  </si>
+  <si>
+    <t>Clone-DeletedPr2-4</t>
+  </si>
+  <si>
+    <t>Vorher_Nachher\Clone-DeletedPr2-4.scm</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
@@ -6771,11 +6954,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6791,12 +6974,13 @@
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="6.7109375" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" customWidth="1"/>
-    <col min="14" max="14" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1"/>
+    <col min="14" max="16" width="5.85546875" customWidth="1"/>
+    <col min="17" max="17" width="70.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="4" t="s">
         <v>225</v>
       </c>
@@ -6831,13 +7015,22 @@
         <v>224</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>226</v>
       </c>
@@ -6877,16 +7070,25 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>394</v>
       </c>
       <c r="C3" s="9">
         <v>28</v>
@@ -6901,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H3" s="9">
         <v>0</v>
@@ -6913,30 +7115,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="L3">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>396</v>
       </c>
       <c r="C4" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E4">
         <v>144</v>
@@ -6945,19 +7156,19 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -6965,22 +7176,31 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>398</v>
       </c>
       <c r="C5" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E5">
         <v>144</v>
@@ -6989,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
@@ -7001,30 +7221,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="L5">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="C6" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E6">
         <v>144</v>
@@ -7042,10 +7271,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -7053,22 +7282,31 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>402</v>
       </c>
       <c r="C7" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E7">
         <v>144</v>
@@ -7077,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="H7" s="9">
         <v>0</v>
@@ -7086,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -7097,22 +7335,31 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>404</v>
       </c>
       <c r="C8" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E8">
         <v>144</v>
@@ -7133,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>195</v>
+        <v>499</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -7141,22 +7388,31 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>406</v>
       </c>
       <c r="C9" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E9">
         <v>144</v>
@@ -7165,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
@@ -7177,30 +7433,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="L9">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C10" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="E10">
         <v>144</v>
@@ -7209,13 +7474,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H10" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -7227,18 +7492,27 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1225</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>227</v>
       </c>
-      <c r="B11" t="s">
-        <v>187</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11" s="9">
         <v>40</v>
@@ -7253,19 +7527,19 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="9">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -7273,16 +7547,25 @@
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C12" s="9">
         <v>40</v>
@@ -7312,21 +7595,30 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1111</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="C13" s="9">
         <v>40</v>
@@ -7341,476 +7633,575 @@
         <v>0</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="9">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>292</v>
+      </c>
+      <c r="E14">
+        <v>144</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>115</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="9">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>292</v>
+      </c>
+      <c r="E15">
+        <v>144</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>195</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="9">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>292</v>
+      </c>
+      <c r="E16">
+        <v>144</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>116</v>
       </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>250</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" s="9">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>292</v>
+      </c>
+      <c r="E17">
+        <v>144</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>120</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1483</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" s="9">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>292</v>
+      </c>
+      <c r="E18">
+        <v>144</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>116</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1276</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="9">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>292</v>
+      </c>
+      <c r="E19">
+        <v>144</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>116</v>
+      </c>
+      <c r="H19" s="9">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="9">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>292</v>
+      </c>
+      <c r="E20">
+        <v>144</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>116</v>
+      </c>
+      <c r="H20" s="9">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>350</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="9">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>292</v>
+      </c>
+      <c r="E21">
+        <v>144</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>116</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>227</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="9">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>292</v>
+      </c>
+      <c r="E22">
+        <v>144</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>116</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>1231</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="9">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>292</v>
+      </c>
+      <c r="E23">
+        <v>144</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>116</v>
+      </c>
+      <c r="H23" s="9">
+        <v>38</v>
+      </c>
+      <c r="I23">
+        <v>38</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>497</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
         <v>228</v>
       </c>
-      <c r="B14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="9">
-        <v>64</v>
-      </c>
-      <c r="D14">
-        <v>320</v>
-      </c>
-      <c r="E14">
-        <v>172</v>
-      </c>
-      <c r="F14">
-        <v>212</v>
-      </c>
-      <c r="G14">
-        <v>129</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1222</v>
-      </c>
-      <c r="M14">
-        <v>731</v>
-      </c>
-      <c r="N14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="9">
-        <v>64</v>
-      </c>
-      <c r="D15">
-        <v>320</v>
-      </c>
-      <c r="E15">
-        <v>172</v>
-      </c>
-      <c r="F15">
-        <v>212</v>
-      </c>
-      <c r="G15">
-        <v>129</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>11</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>210</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="9">
-        <v>64</v>
-      </c>
-      <c r="D16">
-        <v>320</v>
-      </c>
-      <c r="E16">
-        <v>172</v>
-      </c>
-      <c r="F16">
-        <v>212</v>
-      </c>
-      <c r="G16">
-        <v>126</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>15</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>550</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="9">
-        <v>64</v>
-      </c>
-      <c r="D17">
-        <v>320</v>
-      </c>
-      <c r="E17">
-        <v>172</v>
-      </c>
-      <c r="F17">
-        <v>212</v>
-      </c>
-      <c r="G17">
-        <v>129</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>577</v>
-      </c>
-      <c r="N17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="9">
-        <v>64</v>
-      </c>
-      <c r="D18">
-        <v>320</v>
-      </c>
-      <c r="E18">
-        <v>172</v>
-      </c>
-      <c r="F18">
-        <v>212</v>
-      </c>
-      <c r="G18">
-        <v>129</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1078</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="9">
-        <v>64</v>
-      </c>
-      <c r="D19">
-        <v>320</v>
-      </c>
-      <c r="E19">
-        <v>172</v>
-      </c>
-      <c r="F19">
-        <v>212</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>454</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
-        <v>228</v>
-      </c>
-      <c r="B20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="9">
-        <v>64</v>
-      </c>
-      <c r="D20">
-        <v>320</v>
-      </c>
-      <c r="E20">
-        <v>172</v>
-      </c>
-      <c r="F20">
-        <v>212</v>
-      </c>
-      <c r="G20">
-        <v>129</v>
-      </c>
-      <c r="H20" s="9">
-        <v>32</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="9">
-        <v>64</v>
-      </c>
-      <c r="D21">
-        <v>320</v>
-      </c>
-      <c r="E21">
-        <v>172</v>
-      </c>
-      <c r="F21">
-        <v>212</v>
-      </c>
-      <c r="G21">
-        <v>129</v>
-      </c>
-      <c r="H21" s="9">
-        <v>74</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>71</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>156</v>
-      </c>
-      <c r="C22" s="9">
-        <v>64</v>
-      </c>
-      <c r="D22">
-        <v>320</v>
-      </c>
-      <c r="E22">
-        <v>168</v>
-      </c>
-      <c r="F22">
-        <v>212</v>
-      </c>
-      <c r="G22">
-        <v>131</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>123</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="9">
-        <v>64</v>
-      </c>
-      <c r="D23">
-        <v>320</v>
-      </c>
-      <c r="E23">
-        <v>168</v>
-      </c>
-      <c r="F23">
-        <v>212</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>423</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" t="s">
-        <v>168</v>
       </c>
       <c r="C24" s="9">
         <v>64</v>
@@ -7819,13 +8210,13 @@
         <v>320</v>
       </c>
       <c r="E24">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F24">
         <v>212</v>
       </c>
       <c r="G24">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
@@ -7840,21 +8231,30 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>744</v>
-      </c>
-      <c r="N24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>553</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C25" s="9">
         <v>64</v>
@@ -7863,13 +8263,13 @@
         <v>320</v>
       </c>
       <c r="E25">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F25">
         <v>212</v>
       </c>
       <c r="G25">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="H25" s="9">
         <v>0</v>
@@ -7878,27 +8278,36 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>1222</v>
+      </c>
+      <c r="N25">
+        <v>731</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C26" s="9">
         <v>64</v>
@@ -7907,13 +8316,13 @@
         <v>320</v>
       </c>
       <c r="E26">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F26">
         <v>212</v>
       </c>
       <c r="G26">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="H26" s="9">
         <v>0</v>
@@ -7928,21 +8337,30 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>210</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C27" s="9">
         <v>64</v>
@@ -7951,42 +8369,51 @@
         <v>320</v>
       </c>
       <c r="E27">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F27">
         <v>212</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="H27" s="9">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K27">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>550</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C28" s="9">
         <v>64</v>
@@ -7995,13 +8422,13 @@
         <v>320</v>
       </c>
       <c r="E28">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F28">
         <v>212</v>
       </c>
       <c r="G28">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H28" s="9">
         <v>0</v>
@@ -8016,21 +8443,30 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>2361</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="N28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="N28">
+        <v>577</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="C29" s="9">
         <v>64</v>
@@ -8039,13 +8475,13 @@
         <v>320</v>
       </c>
       <c r="E29">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F29">
         <v>212</v>
       </c>
       <c r="G29">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
@@ -8060,21 +8496,30 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1940</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="N29">
+        <v>721</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>356</v>
       </c>
       <c r="C30" s="9">
         <v>64</v>
@@ -8083,16 +8528,16 @@
         <v>320</v>
       </c>
       <c r="E30">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F30">
         <v>212</v>
       </c>
       <c r="G30">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="H30" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -8101,24 +8546,33 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>680</v>
-      </c>
-      <c r="N30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>951</v>
+      </c>
+      <c r="N30">
+        <v>717</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>359</v>
       </c>
       <c r="C31" s="9">
         <v>64</v>
@@ -8127,13 +8581,13 @@
         <v>320</v>
       </c>
       <c r="E31">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F31">
         <v>212</v>
       </c>
       <c r="G31">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="H31" s="9">
         <v>0</v>
@@ -8142,27 +8596,36 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1940</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="N31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="C32" s="9">
         <v>64</v>
@@ -8171,13 +8634,13 @@
         <v>320</v>
       </c>
       <c r="E32">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F32">
         <v>212</v>
       </c>
       <c r="G32">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="H32" s="9">
         <v>0</v>
@@ -8192,21 +8655,30 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>753</v>
-      </c>
-      <c r="N32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>1078</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s">
-        <v>214</v>
+        <v>361</v>
       </c>
       <c r="C33" s="9">
         <v>64</v>
@@ -8215,7 +8687,7 @@
         <v>320</v>
       </c>
       <c r="E33">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F33">
         <v>212</v>
@@ -8224,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -8233,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>532</v>
+        <v>149</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -8241,16 +8713,25 @@
       <c r="M33">
         <v>0</v>
       </c>
-      <c r="N33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>363</v>
       </c>
       <c r="C34" s="9">
         <v>64</v>
@@ -8259,22 +8740,22 @@
         <v>320</v>
       </c>
       <c r="E34">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F34">
         <v>212</v>
       </c>
       <c r="G34">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="H34" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -8285,16 +8766,25 @@
       <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="C35" s="9">
         <v>64</v>
@@ -8303,13 +8793,13 @@
         <v>320</v>
       </c>
       <c r="E35">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F35">
         <v>212</v>
       </c>
       <c r="G35">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="H35" s="9">
         <v>0</v>
@@ -8321,24 +8811,33 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>50</v>
-      </c>
-      <c r="N35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="C36" s="9">
         <v>64</v>
@@ -8347,16 +8846,16 @@
         <v>320</v>
       </c>
       <c r="E36">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F36">
         <v>212</v>
       </c>
       <c r="G36">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="H36" s="9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -8371,18 +8870,27 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>761</v>
-      </c>
-      <c r="N36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C37" s="9">
         <v>64</v>
@@ -8391,16 +8899,16 @@
         <v>320</v>
       </c>
       <c r="E37">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F37">
         <v>212</v>
       </c>
       <c r="G37">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="H37" s="9">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -8409,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>290</v>
+        <v>71</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -8417,16 +8925,25 @@
       <c r="M37">
         <v>0</v>
       </c>
-      <c r="N37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C38" s="9">
         <v>64</v>
@@ -8441,36 +8958,45 @@
         <v>212</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>423</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
         <v>159</v>
       </c>
-      <c r="H38" s="9">
-        <v>37</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>533</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C39" s="9">
         <v>64</v>
@@ -8485,7 +9011,7 @@
         <v>212</v>
       </c>
       <c r="G39">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H39" s="9">
         <v>0</v>
@@ -8500,21 +9026,30 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>1274</v>
+      </c>
+      <c r="N39">
+        <v>744</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="C40" s="9">
         <v>64</v>
@@ -8529,28 +9064,1680 @@
         <v>212</v>
       </c>
       <c r="G40">
+        <v>151</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>37</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>49</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="9">
+        <v>64</v>
+      </c>
+      <c r="D41">
+        <v>320</v>
+      </c>
+      <c r="E41">
+        <v>168</v>
+      </c>
+      <c r="F41">
+        <v>212</v>
+      </c>
+      <c r="G41">
+        <v>151</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>11</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>585</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" t="s">
+        <v>365</v>
+      </c>
+      <c r="C42" s="9">
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>320</v>
+      </c>
+      <c r="E42">
+        <v>168</v>
+      </c>
+      <c r="F42">
+        <v>212</v>
+      </c>
+      <c r="G42">
+        <v>140</v>
+      </c>
+      <c r="H42" s="9">
+        <v>32</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>17</v>
+      </c>
+      <c r="K42">
+        <v>395</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" t="s">
+        <v>367</v>
+      </c>
+      <c r="C43" s="9">
+        <v>64</v>
+      </c>
+      <c r="D43">
+        <v>320</v>
+      </c>
+      <c r="E43">
+        <v>168</v>
+      </c>
+      <c r="F43">
+        <v>212</v>
+      </c>
+      <c r="G43">
+        <v>151</v>
+      </c>
+      <c r="H43" s="9">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>395</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" t="s">
+        <v>369</v>
+      </c>
+      <c r="C44" s="9">
+        <v>64</v>
+      </c>
+      <c r="D44">
+        <v>320</v>
+      </c>
+      <c r="E44">
+        <v>168</v>
+      </c>
+      <c r="F44">
+        <v>212</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>69</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" s="9">
+        <v>64</v>
+      </c>
+      <c r="D45">
+        <v>320</v>
+      </c>
+      <c r="E45">
+        <v>168</v>
+      </c>
+      <c r="F45">
+        <v>212</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>69</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" t="s">
+        <v>373</v>
+      </c>
+      <c r="C46" s="9">
+        <v>64</v>
+      </c>
+      <c r="D46">
+        <v>320</v>
+      </c>
+      <c r="E46">
+        <v>168</v>
+      </c>
+      <c r="F46">
+        <v>212</v>
+      </c>
+      <c r="G46">
         <v>159</v>
       </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="H46" s="9">
+        <v>34</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>8</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" t="s">
+        <v>375</v>
+      </c>
+      <c r="C47" s="9">
+        <v>64</v>
+      </c>
+      <c r="D47">
+        <v>320</v>
+      </c>
+      <c r="E47">
+        <v>168</v>
+      </c>
+      <c r="F47">
+        <v>212</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>69</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>159</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" s="9">
+        <v>64</v>
+      </c>
+      <c r="D48">
+        <v>320</v>
+      </c>
+      <c r="E48">
+        <v>168</v>
+      </c>
+      <c r="F48">
+        <v>212</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>34</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>461</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="9">
+        <v>64</v>
+      </c>
+      <c r="D49">
+        <v>320</v>
+      </c>
+      <c r="E49">
+        <v>168</v>
+      </c>
+      <c r="F49">
+        <v>212</v>
+      </c>
+      <c r="G49">
+        <v>147</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>2361</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="9">
+        <v>64</v>
+      </c>
+      <c r="D50">
+        <v>320</v>
+      </c>
+      <c r="E50">
+        <v>168</v>
+      </c>
+      <c r="F50">
+        <v>212</v>
+      </c>
+      <c r="G50">
+        <v>151</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>1940</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="9">
+        <v>64</v>
+      </c>
+      <c r="D51">
+        <v>320</v>
+      </c>
+      <c r="E51">
+        <v>168</v>
+      </c>
+      <c r="F51">
+        <v>212</v>
+      </c>
+      <c r="G51">
+        <v>151</v>
+      </c>
+      <c r="H51" s="9">
+        <v>30</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>363</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>680</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="9">
+        <v>64</v>
+      </c>
+      <c r="D52">
+        <v>320</v>
+      </c>
+      <c r="E52">
+        <v>168</v>
+      </c>
+      <c r="F52">
+        <v>212</v>
+      </c>
+      <c r="G52">
+        <v>151</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1940</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B53" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="9">
+        <v>64</v>
+      </c>
+      <c r="D53">
+        <v>320</v>
+      </c>
+      <c r="E53">
+        <v>168</v>
+      </c>
+      <c r="F53">
+        <v>212</v>
+      </c>
+      <c r="G53">
+        <v>151</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>1274</v>
+      </c>
+      <c r="N53">
+        <v>753</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="9">
+        <v>64</v>
+      </c>
+      <c r="D54">
+        <v>320</v>
+      </c>
+      <c r="E54">
+        <v>168</v>
+      </c>
+      <c r="F54">
+        <v>212</v>
+      </c>
+      <c r="G54">
+        <v>159</v>
+      </c>
+      <c r="H54" s="9">
+        <v>34</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>466</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="9">
+        <v>64</v>
+      </c>
+      <c r="D55">
+        <v>320</v>
+      </c>
+      <c r="E55">
+        <v>168</v>
+      </c>
+      <c r="F55">
+        <v>212</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <v>37</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>532</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" s="9">
+        <v>64</v>
+      </c>
+      <c r="D56">
+        <v>320</v>
+      </c>
+      <c r="E56">
+        <v>168</v>
+      </c>
+      <c r="F56">
+        <v>212</v>
+      </c>
+      <c r="G56">
+        <v>159</v>
+      </c>
+      <c r="H56" s="9">
+        <v>32</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>385</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" t="s">
+        <v>392</v>
+      </c>
+      <c r="C57" s="9">
+        <v>64</v>
+      </c>
+      <c r="D57">
+        <v>320</v>
+      </c>
+      <c r="E57">
+        <v>168</v>
+      </c>
+      <c r="F57">
+        <v>212</v>
+      </c>
+      <c r="G57">
+        <v>159</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>701</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" s="9">
+        <v>64</v>
+      </c>
+      <c r="D58">
+        <v>320</v>
+      </c>
+      <c r="E58">
+        <v>168</v>
+      </c>
+      <c r="F58">
+        <v>212</v>
+      </c>
+      <c r="G58">
+        <v>159</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="9">
+        <v>64</v>
+      </c>
+      <c r="D59">
+        <v>320</v>
+      </c>
+      <c r="E59">
+        <v>168</v>
+      </c>
+      <c r="F59">
+        <v>212</v>
+      </c>
+      <c r="G59">
+        <v>159</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>50</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="9">
+        <v>64</v>
+      </c>
+      <c r="D60">
+        <v>320</v>
+      </c>
+      <c r="E60">
+        <v>168</v>
+      </c>
+      <c r="F60">
+        <v>212</v>
+      </c>
+      <c r="G60">
+        <v>159</v>
+      </c>
+      <c r="H60" s="9">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>761</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" t="s">
+        <v>378</v>
+      </c>
+      <c r="C61" s="9">
+        <v>64</v>
+      </c>
+      <c r="D61">
+        <v>320</v>
+      </c>
+      <c r="E61">
+        <v>168</v>
+      </c>
+      <c r="F61">
+        <v>212</v>
+      </c>
+      <c r="G61">
+        <v>159</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>44</v>
+      </c>
+      <c r="K61">
+        <v>229</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" t="s">
+        <v>380</v>
+      </c>
+      <c r="C62" s="9">
+        <v>64</v>
+      </c>
+      <c r="D62">
+        <v>320</v>
+      </c>
+      <c r="E62">
+        <v>168</v>
+      </c>
+      <c r="F62">
+        <v>212</v>
+      </c>
+      <c r="G62">
+        <v>159</v>
+      </c>
+      <c r="H62" s="9">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>739</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="9">
+        <v>64</v>
+      </c>
+      <c r="D63">
+        <v>320</v>
+      </c>
+      <c r="E63">
+        <v>168</v>
+      </c>
+      <c r="F63">
+        <v>212</v>
+      </c>
+      <c r="G63">
+        <v>159</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>290</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="9">
+        <v>64</v>
+      </c>
+      <c r="D64">
+        <v>320</v>
+      </c>
+      <c r="E64">
+        <v>168</v>
+      </c>
+      <c r="F64">
+        <v>212</v>
+      </c>
+      <c r="G64">
+        <v>159</v>
+      </c>
+      <c r="H64" s="9">
+        <v>37</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>533</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" t="s">
+        <v>383</v>
+      </c>
+      <c r="C65" s="9">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>320</v>
+      </c>
+      <c r="E65">
+        <v>168</v>
+      </c>
+      <c r="F65">
+        <v>212</v>
+      </c>
+      <c r="G65">
+        <v>159</v>
+      </c>
+      <c r="H65" s="9">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>761</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" t="s">
+        <v>383</v>
+      </c>
+      <c r="C66" s="9">
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <v>320</v>
+      </c>
+      <c r="E66">
+        <v>168</v>
+      </c>
+      <c r="F66">
+        <v>212</v>
+      </c>
+      <c r="G66">
+        <v>159</v>
+      </c>
+      <c r="H66" s="9">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>212</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" t="s">
+        <v>383</v>
+      </c>
+      <c r="C67" s="9">
+        <v>64</v>
+      </c>
+      <c r="D67">
+        <v>320</v>
+      </c>
+      <c r="E67">
+        <v>168</v>
+      </c>
+      <c r="F67">
+        <v>212</v>
+      </c>
+      <c r="G67">
+        <v>159</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1360</v>
+      </c>
+      <c r="N67">
+        <v>761</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" t="s">
+        <v>383</v>
+      </c>
+      <c r="C68" s="9">
+        <v>64</v>
+      </c>
+      <c r="D68">
+        <v>320</v>
+      </c>
+      <c r="E68">
+        <v>168</v>
+      </c>
+      <c r="F68">
+        <v>212</v>
+      </c>
+      <c r="G68">
+        <v>159</v>
+      </c>
+      <c r="H68" s="9">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>351</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>2010</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>1964</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" t="s">
+        <v>388</v>
+      </c>
+      <c r="C69" s="9">
+        <v>64</v>
+      </c>
+      <c r="D69">
+        <v>320</v>
+      </c>
+      <c r="E69">
+        <v>168</v>
+      </c>
+      <c r="F69">
+        <v>212</v>
+      </c>
+      <c r="G69">
+        <v>159</v>
+      </c>
+      <c r="H69" s="9">
+        <v>53</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>497</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="9">
+        <v>64</v>
+      </c>
+      <c r="D70">
+        <v>320</v>
+      </c>
+      <c r="E70">
+        <v>168</v>
+      </c>
+      <c r="F70">
+        <v>212</v>
+      </c>
+      <c r="G70">
+        <v>159</v>
+      </c>
+      <c r="H70" s="9">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
         <v>221</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" t="s">
+        <v>390</v>
+      </c>
+      <c r="C71" s="9">
+        <v>64</v>
+      </c>
+      <c r="D71">
+        <v>320</v>
+      </c>
+      <c r="E71">
+        <v>168</v>
+      </c>
+      <c r="F71">
+        <v>212</v>
+      </c>
+      <c r="G71">
+        <v>159</v>
+      </c>
+      <c r="H71" s="9">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>200</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
